--- a/biology/Médecine/1259_en_santé_et_médecine/1259_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1259_en_santé_et_médecine/1259_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1259_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1259_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1259 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1259_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1259_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Juillet : à Fontainebleau, le roi Saint Louis fonde un hospice dont il confie la direction aux Trinitaires[1].
-19 juillet : à Issendolus en Quercy, entre Brive et Figeac, Gerbert de Thémines et Aigline de Castelnau remettent aux hospitaliers de Saint-Jean l'hôpital Beaulieu, établissement qu'ils ont fondé en 1236[2],[3].
-Août : la léproserie de Pont-de-l'Arche, dans le diocèse d'Évreux en Normandie, est attestée dans un acte de donation de Jean Gosselin, bourgeois de la ville, et de Mathilde, sa femme[4].
-Saint Louis fonde l'hôtel-Dieu de Pontoise, qu'il confie à des religieuses placées sous la règle de saint Augustin[5].
-De séjour à Orléans, Saint Louis y fait construire un hospice pour les aveugles[6].
-Première mention de la léproserie de Sainte-Walburge, deuxième établissement de cette sorte à Liège, rendu sans doute nécessaire par l'interdiction faite en 1247 aux lépreux étrangers d'accéder à la maladrerie communale de Cornillon[7].
-Une admonition rappelle à des dominicaines allemandes que les médecins séculiers ne sont pas admis à l'intérieur du cloître, et précise que cet interdit concerne aussi « les femmes qui professent l'art de la chirurgie[8] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Juillet : à Fontainebleau, le roi Saint Louis fonde un hospice dont il confie la direction aux Trinitaires.
+19 juillet : à Issendolus en Quercy, entre Brive et Figeac, Gerbert de Thémines et Aigline de Castelnau remettent aux hospitaliers de Saint-Jean l'hôpital Beaulieu, établissement qu'ils ont fondé en 1236,.
+Août : la léproserie de Pont-de-l'Arche, dans le diocèse d'Évreux en Normandie, est attestée dans un acte de donation de Jean Gosselin, bourgeois de la ville, et de Mathilde, sa femme.
+Saint Louis fonde l'hôtel-Dieu de Pontoise, qu'il confie à des religieuses placées sous la règle de saint Augustin.
+De séjour à Orléans, Saint Louis y fait construire un hospice pour les aveugles.
+Première mention de la léproserie de Sainte-Walburge, deuxième établissement de cette sorte à Liège, rendu sans doute nécessaire par l'interdiction faite en 1247 aux lépreux étrangers d'accéder à la maladrerie communale de Cornillon.
+Une admonition rappelle à des dominicaines allemandes que les médecins séculiers ne sont pas admis à l'intérieur du cloître, et précise que cet interdit concerne aussi « les femmes qui professent l'art de la chirurgie ».</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1259_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1259_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1259 : le pharmacologue juif Al-Qohen al-Attar rédige au Caire son « Protocole de l'officine et convention pour la préparation des médicaments » (Minhadj al-dukkan wa-dastur al-ayan fi tarkib al-adwiya al-nafia li-l-abdan[9],[10]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1259 : le pharmacologue juif Al-Qohen al-Attar rédige au Caire son « Protocole de l'officine et convention pour la préparation des médicaments » (Minhadj al-dukkan wa-dastur al-ayan fi tarkib al-adwiya al-nafia li-l-abdan,).</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1259_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1259_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1249-1259 : fl. Maîtresse Hersend, l'une des deux seules chirurgiennes royales connues, qui accompagne Saint Louis à Damiette pendant la septième croisade, reçoit de lui une rente à vie, épouse un apothicaire royal du nom de Jacques et devient propriétaire à Paris[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1249-1259 : fl. Maîtresse Hersend, l'une des deux seules chirurgiennes royales connues, qui accompagne Saint Louis à Damiette pendant la septième croisade, reçoit de lui une rente à vie, épouse un apothicaire royal du nom de Jacques et devient propriétaire à Paris.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1259_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1259_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1er mars 1259 ou 1260 : Richard de Fournival (né en 1201), médecin, alchimiste, poète, clerc et érudit français[12].
-Roland de Crémone (né en 1178), théologien dominicain, « probablement docteur en médecine quand il prit l'habit des Prêcheurs[13] ».
-Hugo Borgognoni (it)[14] (né à une date inconnue), médecin et chirurgien italien, père de Théodoric Borgognoni[15] (1205-1298).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars 1259 ou 1260 : Richard de Fournival (né en 1201), médecin, alchimiste, poète, clerc et érudit français.
+Roland de Crémone (né en 1178), théologien dominicain, « probablement docteur en médecine quand il prit l'habit des Prêcheurs ».
+Hugo Borgognoni (it) (né à une date inconnue), médecin et chirurgien italien, père de Théodoric Borgognoni (1205-1298).</t>
         </is>
       </c>
     </row>
